--- a/medicine/Psychotrope/Château_Cheval_Blanc/Château_Cheval_Blanc.xlsx
+++ b/medicine/Psychotrope/Château_Cheval_Blanc/Château_Cheval_Blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Cheval_Blanc</t>
+          <t>Château_Cheval_Blanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château Cheval Blanc est un domaine viticole situé à Saint-Émilion en Gironde. En AOC saint-émilion-grand-cru, il est l'un des quatre domaines, avec le château Ausone, le château Pavie et le château Angélus, à avoir été classé premier grand cru classé A dans le classements des vins de Saint-Émilion de 2012. Le domaine décide de sortir de ce classement en 2022.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Cheval_Blanc</t>
+          <t>Château_Cheval_Blanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Histoire du domaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vignoble est la propriété de la famille Fourcaud-Laussac pendant plus de 150 ans.
 Pierre Lurton devient directeur du domaine en 1990.
-En 1998, le domaine est racheté par le Belge Albert Frère et Bernard Arnault et administré par Pierre Lurton (qui dirige également château d'Yquem)[1].
-Depuis 1998, le château Cheval Blanc s'est associé avec le domaine argentin Terrazas de los Andes, appartenant également au groupe LVMH, pour créer Cheval des Andes à partir de cépages cabernet et malbec. En 2012, Bernard Arnault décide de créer une marque d'hôtels haut de gamme reprenant la dénomination[2],[3].
-En 2008, Pierre-Olivier Clouet est nommé directeur technique. Il remplace Pierre Lurton à la direction générale en 2023, ce dernier devenant président du conseil de gérance[4].
+En 1998, le domaine est racheté par le Belge Albert Frère et Bernard Arnault et administré par Pierre Lurton (qui dirige également château d'Yquem).
+Depuis 1998, le château Cheval Blanc s'est associé avec le domaine argentin Terrazas de los Andes, appartenant également au groupe LVMH, pour créer Cheval des Andes à partir de cépages cabernet et malbec. En 2012, Bernard Arnault décide de créer une marque d'hôtels haut de gamme reprenant la dénomination,.
+En 2008, Pierre-Olivier Clouet est nommé directeur technique. Il remplace Pierre Lurton à la direction générale en 2023, ce dernier devenant président du conseil de gérance.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Cheval_Blanc</t>
+          <t>Château_Cheval_Blanc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Terroir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le domaine de Cheval Blanc est à la limite de Pomerol, ainsi le sol du vignoble possède une importante proportion de graves sur un sous-sol d'alluvions du quaternaire. L'encépagement du Cheval Blanc est composé à 52 % de cabernet franc, à 43 % de merlot et à 5 % de cabernet sauvignon, ce qui est assez rare pour un saint-émilion.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Cheval_Blanc</t>
+          <t>Château_Cheval_Blanc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,11 +594,48 @@
           <t>Vins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En plus du premier vin, le domaine viticole produit également un second vin appelé « Le Petit Cheval »[5].
-Dans la culture populaire
-Au cinéma, Cheval Blanc est cité dans les films suivants :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En plus du premier vin, le domaine viticole produit également un second vin appelé « Le Petit Cheval ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Château_Cheval_Blanc</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_Cheval_Blanc</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Au cinéma, Cheval Blanc est cité dans les films suivants :
 Les Couloirs du temps : Les Visiteurs 2 de Jean-Marie Poiré (1998) : Cheval Blanc 1961
 Sideways d'Alexander Payne (2004) : une bouteille de Cheval Blanc 1961 tient un rôle important dans le film
 Ratatouille de Brad Bird (2007) : Cheval Blanc 1947
